--- a/Doc/ExcelConfig/Datas/活动/TActivityTotalGainMetaStone.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityTotalGainMetaStone.xlsx
@@ -103,10 +103,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -138,9 +138,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,75 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -229,13 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -252,6 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,175 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +500,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -533,30 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,6 +559,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,7 +600,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,67 +609,67 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -678,55 +678,55 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1252,7 +1252,7 @@
         <v>44735</v>
       </c>
       <c r="E6" s="15">
-        <v>44742</v>
+        <v>45473</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>

--- a/Doc/ExcelConfig/Datas/活动/TActivityTotalGainMetaStone.xlsx
+++ b/Doc/ExcelConfig/Datas/活动/TActivityTotalGainMetaStone.xlsx
@@ -1100,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A20" sqref="$A20:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1255,7 +1255,7 @@
         <v>45473</v>
       </c>
       <c r="F6" s="14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G6" s="16">
         <v>10001</v>
@@ -1289,7 +1289,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16">
         <v>10002</v>
@@ -1323,7 +1323,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="G10" s="16">
         <v>10002</v>
@@ -1357,7 +1357,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16">
-        <v>4</v>
+        <v>666</v>
       </c>
       <c r="G12" s="16">
         <v>10002</v>
@@ -1391,7 +1391,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
-        <v>5</v>
+        <v>1888</v>
       </c>
       <c r="G14" s="16">
         <v>10002</v>
@@ -1425,7 +1425,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16">
-        <v>6</v>
+        <v>6888</v>
       </c>
       <c r="G16" s="16">
         <v>10002</v>
@@ -1459,7 +1459,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16">
-        <v>7</v>
+        <v>18888</v>
       </c>
       <c r="G18" s="16">
         <v>10002</v>
@@ -1487,76 +1487,41 @@
       <c r="K19" s="16"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="16">
-        <v>10002</v>
-      </c>
+    <row r="20" spans="2:8">
+      <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="15">
-        <v>44735</v>
-      </c>
-      <c r="E20" s="15">
-        <v>44742</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>10001</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="16">
-        <v>10002</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16">
-        <v>2</v>
-      </c>
-      <c r="G22" s="16">
-        <v>10001</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
-      <c r="G23" s="16">
-        <v>10002</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="16"/>
@@ -1573,6 +1538,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:8">
@@ -1581,9 +1547,12 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="4:8">
+    <row r="27" spans="2:8">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -1724,78 +1693,6 @@
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
